--- a/xlsx/三菱_intext.xlsx
+++ b/xlsx/三菱_intext.xlsx
@@ -29,7 +29,7 @@
     <t>三菱集团</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_三菱</t>
+    <t>政策_政策_混合动力车辆_三菱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E8%B4%A2%E9%98%80</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E9%89%9B%E7%AD%86%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>三菱鉛筆有限公司</t>
+    <t>三菱铅笔有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E9%87%8D%E5%B7%A5%E4%B8%9A%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E5%8C%96%E5%AD%B8%E7%99%BC%E5%B1%95%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>三菱化學發展股份有限公司</t>
+    <t>三菱化学发展股份有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1UFJ%E9%87%91%E8%9E%8D%E9%9B%86%E5%9B%A2</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1UFJ%E4%BF%A1%E8%A8%97%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>三菱UFJ信託銀行</t>
+    <t>三菱UFJ信讬银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1UFJ%E8%AD%89%E5%88%B8</t>
   </si>
   <si>
-    <t>三菱UFJ證券</t>
+    <t>三菱UFJ证券</t>
   </si>
 </sst>
 </file>
